--- a/cases/NorthSea_v2/Networks/NetworkDataElectricity_AC.xlsx
+++ b/cases/NorthSea_v2/Networks/NetworkDataElectricity_AC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea_v2\Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A10963F-65CA-43D6-A00B-C73081464618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A943B723-488E-4B29-8C33-60625D336B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA908912-227C-430C-843A-6E0E9DEC2BCE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{EA908912-227C-430C-843A-6E0E9DEC2BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="NetworkConnection" sheetId="8" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="34">
   <si>
     <t>NL_on_Borssele</t>
   </si>
@@ -219,14 +219,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -267,6 +267,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1022,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DD3F9F-5CD5-413C-96B9-1FF4B1CDED4D}">
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4467,32 +4497,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A61:AC1048576 A33:N60 A1:AC29 A31:AC32 AE1:XFD29 AE31:XFD1048576">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="DC">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="DC">
       <formula>NOT(ISERROR(SEARCH("DC",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:AC29">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:AC29">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:AC30 AE30:XFD30">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="DC">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="DC">
       <formula>NOT(ISERROR(SEARCH("DC",A30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:O30">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD1:AD1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="DC">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="DC">
       <formula>NOT(ISERROR(SEARCH("DC",AD1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4502,10 +4532,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343B1B1-37DC-4EB7-AD64-1154038557BC}">
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4515,7 +4545,7 @@
     <col min="30" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="str" cm="1">
         <f t="array" ref="B1:AC1">TRANSPOSE(_xlfn.ANCHORARRAY(A2))</f>
         <v>onNL_NE</v>
@@ -4601,11 +4631,8 @@
       <c r="AC1" s="1" t="str">
         <v>ofNL_IJ_G</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="str" cm="1">
         <f t="array" ref="A2:A29">[1]Nodes!$A$2:$A$29</f>
         <v>onNL_NE</v>
@@ -4694,11 +4721,8 @@
       <c r="AC2" s="1">
         <v>0</v>
       </c>
-      <c r="AD2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <v>onNL_SE</v>
       </c>
@@ -4786,11 +4810,8 @@
       <c r="AC3" s="1">
         <v>0</v>
       </c>
-      <c r="AD3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="str">
         <v>onNL_NW</v>
       </c>
@@ -4878,11 +4899,8 @@
       <c r="AC4" s="1">
         <v>1</v>
       </c>
-      <c r="AD4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="str">
         <v>onNL_W</v>
       </c>
@@ -4970,11 +4988,8 @@
       <c r="AC5" s="1">
         <v>1</v>
       </c>
-      <c r="AD5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="str">
         <v>onNL_CE</v>
       </c>
@@ -5062,11 +5077,8 @@
       <c r="AC6" s="1">
         <v>0</v>
       </c>
-      <c r="AD6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="str">
         <v>onNL_SW</v>
       </c>
@@ -5154,11 +5166,8 @@
       <c r="AC7" s="1">
         <v>1</v>
       </c>
-      <c r="AD7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="str">
         <v>onNL_CW</v>
       </c>
@@ -5246,11 +5255,8 @@
       <c r="AC8" s="1">
         <v>0</v>
       </c>
-      <c r="AD8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="str">
         <v>onNL_E</v>
       </c>
@@ -5338,11 +5344,8 @@
       <c r="AC9" s="1">
         <v>0</v>
       </c>
-      <c r="AD9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="str">
         <v>onBE</v>
       </c>
@@ -5430,11 +5433,8 @@
       <c r="AC10" s="1">
         <v>0</v>
       </c>
-      <c r="AD10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="str">
         <v>onDE</v>
       </c>
@@ -5522,11 +5522,8 @@
       <c r="AC11" s="1">
         <v>0</v>
       </c>
-      <c r="AD11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="str">
         <v>onUK</v>
       </c>
@@ -5570,10 +5567,10 @@
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
         <v>0</v>
@@ -5615,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="str">
         <v>onNOS</v>
       </c>
@@ -5704,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="str">
         <v>onDKW</v>
       </c>
@@ -5793,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="str">
         <v>ofNL_IJ_B</v>
       </c>
@@ -5828,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -5882,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="str">
         <v>ofNL_IJ_A</v>
       </c>
@@ -5917,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -7128,54 +7125,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A61:XFD1048576 A33:N60 AD33:XFD60 A1:XFD32">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="DC">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="DC">
       <formula>NOT(ISERROR(SEARCH("DC",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AC29 B2:O30">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="B2:O30 P2:AC29">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:AC29">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
